--- a/Trabalho/Tables/Tables.xlsx
+++ b/Trabalho/Tables/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tebaldi\Documents\GitHub\EmpiricalFinance_1\Trabalho\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4EE49055-7D25-4D96-A66A-0196A1D64601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{297EFAC2-A5C4-4C9F-B1AB-43DE57632D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Table1_MSE" sheetId="5" r:id="rId1"/>
@@ -24,83 +24,32 @@
     <sheet name="Table2_QL_252" sheetId="13" r:id="rId9"/>
     <sheet name="Table4_MSE" sheetId="14" r:id="rId10"/>
     <sheet name="Table4_QL" sheetId="15" r:id="rId11"/>
-    <sheet name="Table1_HF_QL" sheetId="1" r:id="rId12"/>
-    <sheet name="Table1_HF_MSE" sheetId="2" r:id="rId13"/>
+    <sheet name="Table1_HF_MSE" sheetId="18" r:id="rId12"/>
+    <sheet name="Table1_HF_QL" sheetId="19" r:id="rId13"/>
+    <sheet name="Table1_HF_MSE_Overall" sheetId="21" r:id="rId14"/>
+    <sheet name="Table1_HF_QL_Overall" sheetId="20" r:id="rId15"/>
+    <sheet name="DM mov5 " sheetId="22" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="46">
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>Rest_5</t>
-  </si>
-  <si>
-    <t>Rest_20</t>
-  </si>
-  <si>
-    <t>Rest_60</t>
-  </si>
-  <si>
-    <t>arch.norm</t>
-  </si>
-  <si>
-    <t>arch.sstd</t>
-  </si>
-  <si>
-    <t>garch.norm</t>
-  </si>
-  <si>
-    <t>garch.sstd</t>
-  </si>
-  <si>
-    <t>eGarch.norm</t>
-  </si>
-  <si>
-    <t>eGarch.sstd</t>
-  </si>
-  <si>
-    <t>gjrGarch.norm</t>
-  </si>
-  <si>
-    <t>gjrGarch.sstd</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="40">
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>EWMA.norm</t>
+    <t>ARCH</t>
   </si>
   <si>
-    <t>EWMA.sstd</t>
+    <t>Norm</t>
   </si>
   <si>
-    <t>apArch.norm</t>
-  </si>
-  <si>
-    <t>apArch.sstd</t>
+    <t>Sstd</t>
   </si>
   <si>
     <t>Model</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>re-estimation</t>
-  </si>
-  <si>
-    <t>5 days</t>
-  </si>
-  <si>
-    <t>20 days</t>
-  </si>
-  <si>
-    <t>252 days</t>
   </si>
   <si>
     <t>ModelName</t>
@@ -151,25 +100,61 @@
     <t>Inf</t>
   </si>
   <si>
-    <t>ModelName "5" "20" "60" "252"</t>
+    <t>Dist</t>
   </si>
   <si>
-    <t>6 "apArch" 2.45905245644529 2.46502974925914 2.46666225698378 2.45984987537257</t>
+    <t>fit.mov3_20</t>
   </si>
   <si>
-    <t>5 "EWMA" 2.46430358753645 2.46787188232367 2.45576965066578 2.45628824503113</t>
+    <t>fit.mov3_5</t>
   </si>
   <si>
-    <t>4 "gjrGarch" 2.44696754801958 2.44842092198977 2.45104266714893 2.4473496391799</t>
+    <t>fit.mov3_60</t>
   </si>
   <si>
-    <t>3 "eGarch" 2.4367643236938 2.44147428759575 2.43546855292415 2.44514585356002</t>
+    <t>fit.roll_20</t>
   </si>
   <si>
-    <t>2 "garch" 2.45747231080326 2.45550686824779 2.44369306053227 2.43533797997734</t>
+    <t>fit.roll_5</t>
   </si>
   <si>
-    <t>1 "arch" 17.9750800057115 49.786162341787 31.2580170276369 26.3827936550404</t>
+    <t>fit.roll_60</t>
+  </si>
+  <si>
+    <t>dm</t>
+  </si>
+  <si>
+    <t>GARCH</t>
+  </si>
+  <si>
+    <t>EGARCH</t>
+  </si>
+  <si>
+    <t>GJRGARCH</t>
+  </si>
+  <si>
+    <t>APARCH</t>
+  </si>
+  <si>
+    <t>DM p-value</t>
+  </si>
+  <si>
+    <t>Mov3(20)</t>
+  </si>
+  <si>
+    <t>Mov3(5)</t>
+  </si>
+  <si>
+    <t>Mov3(60)</t>
+  </si>
+  <si>
+    <t>Roll(20)</t>
+  </si>
+  <si>
+    <t>Roll(5)</t>
+  </si>
+  <si>
+    <t>Roll(60)</t>
   </si>
 </sst>
 </file>
@@ -1037,13 +1022,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G1" t="str">
         <f>PROPER(C1)</f>
@@ -1059,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>9.5927308886954794</v>
@@ -1093,7 +1078,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>1.5820891528410199</v>
@@ -1127,7 +1112,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1.5837088087942801</v>
@@ -1161,7 +1146,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1.60241619192962</v>
@@ -1195,7 +1180,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>1.5846390070096199</v>
@@ -1229,7 +1214,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>1.65203094955148</v>
@@ -1308,18 +1293,20 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C1">
         <v>5</v>
@@ -1351,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>6.7168173891761098</v>
@@ -1399,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>1.57809495771756</v>
@@ -1447,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1.5762474940842801</v>
@@ -1495,7 +1482,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1.58965171487111</v>
@@ -1543,7 +1530,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>1.5836378455437601</v>
@@ -1591,7 +1578,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>1.6330306814144</v>
@@ -1672,11 +1659,11 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I13">
-        <f>SMALL(I2:K7,1)</f>
-        <v>1.5762474940842801</v>
+        <f>SMALL(I2:L7,1)</f>
+        <v>1.5749666610617701</v>
       </c>
       <c r="J13" t="b">
-        <f>EXACT(I13,I9)</f>
+        <f>EXACT(I13,L9)</f>
         <v>1</v>
       </c>
     </row>
@@ -1697,45 +1684,365 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:L7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>40</v>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>5</v>
+      </c>
+      <c r="D1">
+        <v>20</v>
+      </c>
+      <c r="E1">
+        <v>60</v>
+      </c>
+      <c r="F1">
+        <v>252</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>20</v>
+      </c>
+      <c r="K1">
+        <v>60</v>
+      </c>
+      <c r="L1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>17.975080005711501</v>
+      </c>
+      <c r="D2">
+        <v>49.786162341786998</v>
+      </c>
+      <c r="E2">
+        <v>31.2580170276369</v>
+      </c>
+      <c r="F2">
+        <v>26.382793655040398</v>
+      </c>
+      <c r="H2" t="str">
+        <f>UPPER(B2)</f>
+        <v>ARCH</v>
+      </c>
+      <c r="I2" s="1">
+        <f>C2</f>
+        <v>17.975080005711501</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:L7" si="0">D2</f>
+        <v>49.786162341786998</v>
+      </c>
+      <c r="K2" s="1">
+        <f t="shared" si="0"/>
+        <v>31.2580170276369</v>
+      </c>
+      <c r="L2" s="1">
+        <f t="shared" si="0"/>
+        <v>26.382793655040398</v>
+      </c>
+      <c r="N2">
+        <f>SMALL(I2:L2,1)</f>
+        <v>17.975080005711501</v>
+      </c>
+      <c r="O2">
+        <f>INDEX($I$1:$L$1,1,MATCH(N2,$I2:$L2,0))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>2.4574723108032601</v>
+      </c>
+      <c r="D3">
+        <v>2.4555068682477899</v>
+      </c>
+      <c r="E3">
+        <v>2.44369306053227</v>
+      </c>
+      <c r="F3">
+        <v>2.4353379799773398</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H7" si="1">UPPER(B3)</f>
+        <v>GARCH</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I7" si="2">C3</f>
+        <v>2.4574723108032601</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4555068682477899</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" si="0"/>
+        <v>2.44369306053227</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4353379799773398</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N7" si="3">SMALL(I3:L3,1)</f>
+        <v>2.4353379799773398</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O7" si="4">INDEX($I$1:$L$1,1,MATCH(N3,$I3:$L3,0))</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>2.4367643236937999</v>
+      </c>
+      <c r="D4">
+        <v>2.4414742875957498</v>
+      </c>
+      <c r="E4">
+        <v>2.4354685529241502</v>
+      </c>
+      <c r="F4">
+        <v>2.4451458535600201</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>EGARCH</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4367643236937999</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4414742875957498</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4354685529241502</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4451458535600201</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>2.4354685529241502</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>2.4469675480195798</v>
+      </c>
+      <c r="D5">
+        <v>2.4484209219897699</v>
+      </c>
+      <c r="E5">
+        <v>2.45104266714893</v>
+      </c>
+      <c r="F5">
+        <v>2.4473496391799001</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>GJRGARCH</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4469675480195798</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4484209219897699</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.45104266714893</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4473496391799001</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>2.4469675480195798</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>2.4643035875364498</v>
+      </c>
+      <c r="D6">
+        <v>2.4678718823236698</v>
+      </c>
+      <c r="E6">
+        <v>2.45576965066578</v>
+      </c>
+      <c r="F6">
+        <v>2.4562882450311299</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>EWMA</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4643035875364498</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4678718823236698</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.45576965066578</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4562882450311299</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>2.45576965066578</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>2.4590524564452898</v>
+      </c>
+      <c r="D7">
+        <v>2.46502974925914</v>
+      </c>
+      <c r="E7">
+        <v>2.4666622569837799</v>
+      </c>
+      <c r="F7">
+        <v>2.4598498753725702</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>APARCH</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4590524564452898</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.46502974925914</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4666622569837799</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4598498753725702</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>2.4590524564452898</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f>SMALL(I$2:I$7,1)</f>
+        <v>2.4367643236937999</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:L9" si="5">SMALL(J$2:J$7,1)</f>
+        <v>2.4414742875957498</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>2.4354685529241502</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>2.4353379799773398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I10" t="str">
+        <f>INDEX($H$2:$H$7,MATCH(I9,I$2:I$7,0),1)</f>
+        <v>EGARCH</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" ref="J10:L10" si="6">INDEX($H$2:$H$7,MATCH(J9,J$2:J$7,0),1)</f>
+        <v>EGARCH</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="6"/>
+        <v>EGARCH</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="6"/>
+        <v>GARCH</v>
       </c>
     </row>
   </sheetData>
@@ -1745,409 +2052,227 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Planilha7"/>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:K14"/>
+      <selection activeCell="H2" sqref="G2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
       <c r="I1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>0.26535952147445901</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" s="1">
+        <f>INDEX($C$2:$E$7,MATCH($G2,$B$2:$B$7,0),1)</f>
+        <v>12.596444418058001</v>
+      </c>
+      <c r="I2" s="1">
+        <f>INDEX($C$2:$E$7,MATCH($G2,$B$2:$B$7,0),2)</f>
+        <v>0.51450223064400102</v>
+      </c>
+      <c r="J2" s="1">
+        <f>INDEX($C$2:$E$7,MATCH($G2,$B$2:$B$7,0),3)</f>
+        <v>0.218780356567402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>12.596444418058001</v>
+      </c>
+      <c r="D3">
+        <v>0.51450223064400102</v>
+      </c>
+      <c r="E3">
+        <v>0.218780356567402</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:I7" si="0">INDEX($C$2:$E$7,MATCH($G3,$B$2:$B$7,0),1)</f>
+        <v>0.311056057025207</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I7" si="1">INDEX($C$2:$E$7,MATCH($G3,$B$2:$B$7,0),2)</f>
+        <v>0.296368082607738</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J7" si="2">INDEX($C$2:$E$7,MATCH($G3,$B$2:$B$7,0),3)</f>
+        <v>0.49483740364809697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0.229545813488883</v>
+      </c>
+      <c r="D4">
+        <v>0.231014025035332</v>
+      </c>
+      <c r="E4">
+        <v>0.130272562660426</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.229545813488883</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.231014025035332</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.130272562660426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>31.361400499232701</v>
-      </c>
-      <c r="D3">
-        <v>62.788836583820398</v>
-      </c>
-      <c r="E3">
-        <v>64.871254602071701</v>
-      </c>
-      <c r="G3" t="str">
-        <f>UPPER(MID(B3,1,SEARCH(".",B3)-1))</f>
-        <v>ARCH</v>
-      </c>
-      <c r="H3" t="str">
-        <f>PROPER(MID(B3,SEARCH(".",B3)+1,9))</f>
-        <v>Norm</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0.22619754274643999</v>
+      </c>
+      <c r="D5">
+        <v>0.22313683438870599</v>
+      </c>
+      <c r="E5">
+        <v>0.26710524380171202</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25997676492684102</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>1.29721501876894</v>
-      </c>
-      <c r="D4">
-        <v>1.2996156077435701</v>
-      </c>
-      <c r="E4">
-        <v>1.3016726115125199</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" ref="G4:G14" si="0">UPPER(MID(B4,1,SEARCH(".",B4)-1))</f>
-        <v>ARCH</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" ref="H4:H14" si="1">PROPER(MID(B4,SEARCH(".",B4)+1,9))</f>
-        <v>Sstd</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>0.311056057025207</v>
+      </c>
+      <c r="D6">
+        <v>0.296368082607738</v>
+      </c>
+      <c r="E6">
+        <v>0.49483740364809697</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22619754274643999</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22313683438870599</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.26710524380171202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>1.2096910088883199</v>
-      </c>
-      <c r="D5">
-        <v>1.2128416029160001</v>
-      </c>
-      <c r="E5">
-        <v>1.21674946098947</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v>GARCH</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="1"/>
-        <v>Norm</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>1.20055358920959</v>
-      </c>
-      <c r="D6">
-        <v>1.2038730064385901</v>
-      </c>
-      <c r="E6">
-        <v>1.2079164983778801</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>GARCH</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="1"/>
-        <v>Sstd</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>1.1466102516868999</v>
-      </c>
-      <c r="D7">
-        <v>1.15178071230132</v>
-      </c>
-      <c r="E7">
-        <v>1.16275352020242</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>EGARCH</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="1"/>
-        <v>Norm</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>1.14739650578769</v>
-      </c>
-      <c r="D8">
-        <v>1.15396443342767</v>
-      </c>
-      <c r="E8">
-        <v>1.1678266101413901</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>EGARCH</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="1"/>
-        <v>Sstd</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>1.1718324223257399</v>
-      </c>
-      <c r="D9">
-        <v>1.1742665403608099</v>
-      </c>
-      <c r="E9">
-        <v>1.17768822594206</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>GJRGARCH</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="1"/>
-        <v>Norm</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>GJRGARCH</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="1"/>
-        <v>Sstd</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>1.14976043908952</v>
-      </c>
-      <c r="D11">
-        <v>1.15085206313593</v>
-      </c>
-      <c r="E11">
-        <v>1.15041419493746</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>EWMA</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="1"/>
-        <v>Norm</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>1.14690279505962</v>
-      </c>
-      <c r="D12">
-        <v>1.1475263846272901</v>
-      </c>
-      <c r="E12">
-        <v>1.1472654576351</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v>EWMA</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="1"/>
-        <v>Sstd</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>1.1768787103864899</v>
-      </c>
-      <c r="D13">
-        <v>1.1796737928454599</v>
-      </c>
-      <c r="E13">
-        <v>1.18686567566495</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v>APARCH</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="1"/>
-        <v>Norm</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>1.1703412508979301</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v>APARCH</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="1"/>
-        <v>Sstd</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <f>SMALL(C$3:C$14,1)</f>
-        <v>1.1466102516868999</v>
-      </c>
-      <c r="D16">
-        <f>SMALL(D$3:D$14,1)</f>
-        <v>1.1475263846272901</v>
-      </c>
-      <c r="E16">
-        <f>SMALL(E$3:E$14,1)</f>
-        <v>1.1472654576351</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" t="str">
-        <f>INDEX($B$3:$B$14,MATCH(C16,C$3:C$14,0),1)</f>
-        <v>eGarch.norm</v>
-      </c>
-      <c r="D17" t="str">
-        <f>INDEX($B$3:$B$14,MATCH(D16,D$3:D$14,0),1)</f>
-        <v>EWMA.sstd</v>
-      </c>
-      <c r="E17" t="str">
-        <f>INDEX($B$3:$B$14,MATCH(E16,E$3:E$14,0),1)</f>
-        <v>EWMA.sstd</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <f>SMALL(C$3:C$14,2)</f>
-        <v>1.14690279505962</v>
-      </c>
-      <c r="D19">
-        <f>SMALL(D$3:D$14,2)</f>
-        <v>1.15085206313593</v>
-      </c>
-      <c r="E19">
-        <f>SMALL(E$3:E$14,2)</f>
-        <v>1.15041419493746</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" t="str">
-        <f>INDEX($B$3:$B$14,MATCH(C19,C$3:C$14,0),1)</f>
-        <v>EWMA.sstd</v>
-      </c>
-      <c r="D20" t="str">
-        <f>INDEX($B$3:$B$14,MATCH(D19,D$3:D$14,0),1)</f>
-        <v>EWMA.norm</v>
-      </c>
-      <c r="E20" t="str">
-        <f>INDEX($B$3:$B$14,MATCH(E19,E$3:E$14,0),1)</f>
-        <v>EWMA.norm</v>
+        <v>0.25997676492684102</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26535952147445901</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
       </c>
     </row>
   </sheetData>
@@ -2157,231 +2282,1566 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Planilha8"/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>12.596444418058001</v>
-      </c>
-      <c r="D2">
-        <v>0.51063675128022601</v>
-      </c>
-      <c r="E2">
-        <v>0.49518188981703098</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.1768787103864899</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <f>INDEX($C$2:$E$7,MATCH($G2,$B$2:$B$7,0),1)</f>
+        <v>31.361400499232701</v>
+      </c>
+      <c r="I2" s="1">
+        <f>INDEX($C$2:$E$7,MATCH($G2,$B$2:$B$7,0),2)</f>
+        <v>1.29721501876894</v>
+      </c>
+      <c r="J2" s="1">
+        <f>INDEX($C$2:$E$7,MATCH($G2,$B$2:$B$7,0),3)</f>
+        <v>0.218780356567402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0.51450223064400102</v>
+        <v>31.361400499232701</v>
       </c>
       <c r="D3">
-        <v>0.52186409371035503</v>
+        <v>1.29721501876894</v>
       </c>
       <c r="E3">
-        <v>0.52820175578570405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.218780356567402</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:I7" si="0">INDEX($C$2:$E$7,MATCH($G3,$B$2:$B$7,0),1)</f>
+        <v>1.2096910088883199</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I7" si="1">INDEX($C$2:$E$7,MATCH($G3,$B$2:$B$7,0),2)</f>
+        <v>1.20055358920959</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J7" si="2">INDEX($C$2:$E$7,MATCH($G3,$B$2:$B$7,0),3)</f>
+        <v>0.49483740364809697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>0.311056057025207</v>
+        <v>1.1466102516868999</v>
       </c>
       <c r="D4">
-        <v>0.315554135568547</v>
+        <v>1.14739650578769</v>
       </c>
       <c r="E4">
-        <v>0.32252994311248401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.130272562660426</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1466102516868999</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="1"/>
+        <v>1.14739650578769</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.130272562660426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>0.296368082607738</v>
+        <v>1.14976043908952</v>
       </c>
       <c r="D5">
-        <v>0.30069458226524898</v>
+        <v>1.14690279505962</v>
       </c>
       <c r="E5">
-        <v>0.30722701188433899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.26710524380171202</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1718324223257399</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>0.229545813488883</v>
+        <v>1.2096910088883199</v>
       </c>
       <c r="D6">
-        <v>0.234034645219309</v>
+        <v>1.20055358920959</v>
       </c>
       <c r="E6">
-        <v>0.234530022130473</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.49483740364809697</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.14976043908952</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>1.14690279505962</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.26710524380171202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1.1718324223257399</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1768787103864899</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T15"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:Q7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>0.257352398204926</v>
+      </c>
+      <c r="E2">
+        <v>0.25257175863273401</v>
+      </c>
+      <c r="F2">
+        <v>0.249554585086421</v>
+      </c>
+      <c r="G2">
+        <v>0.26667148696600101</v>
+      </c>
+      <c r="H2">
+        <v>0.26535952147445901</v>
+      </c>
+      <c r="I2">
+        <v>0.27474080544274698</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <f>INDEX($D$2:$I$7,MATCH($K2,$B$2:$B$7,0),L$9)</f>
+        <v>4.2825489380816801</v>
+      </c>
+      <c r="M2" s="1">
+        <f t="shared" ref="M2:Q7" si="0">INDEX($D$2:$I$7,MATCH($K2,$B$2:$B$7,0),M$9)</f>
+        <v>8.8841633325198295</v>
+      </c>
+      <c r="N2" s="1">
+        <f t="shared" si="0"/>
+        <v>0.59786469951365795</v>
+      </c>
+      <c r="O2" s="1">
+        <f t="shared" si="0"/>
+        <v>12.596444418058001</v>
+      </c>
+      <c r="P2" s="1">
+        <f t="shared" si="0"/>
+        <v>0.51063675128022601</v>
+      </c>
+      <c r="Q2" s="1">
+        <f t="shared" si="0"/>
+        <v>0.49518188981703098</v>
+      </c>
+      <c r="S2">
+        <f>SMALL(L2:Q2,1)</f>
+        <v>0.49518188981703098</v>
+      </c>
+      <c r="T2" t="str">
+        <f>INDEX($L$1:$Q$1,1,MATCH(S2,L2:Q2,0))</f>
+        <v>Roll(60)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>8.8841633325198295</v>
+      </c>
+      <c r="E3">
+        <v>4.2825489380816801</v>
+      </c>
+      <c r="F3">
+        <v>0.59786469951365795</v>
+      </c>
+      <c r="G3">
+        <v>0.51063675128022601</v>
+      </c>
+      <c r="H3">
+        <v>12.596444418058001</v>
+      </c>
+      <c r="I3">
+        <v>0.49518188981703098</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L7" si="1">INDEX($D$2:$I$7,MATCH($K3,$B$2:$B$7,0),L$9)</f>
+        <v>0.30301736805923302</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30828311638089001</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31476409590473098</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.311056057025207</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.315554135568546</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32252994311248401</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S7" si="2">SMALL(L3:Q3,1)</f>
+        <v>0.30301736805923302</v>
+      </c>
+      <c r="T3" t="str">
+        <f>INDEX($L$1:$Q$1,1,MATCH(S3,L3:Q3,0))</f>
+        <v>Mov3(5)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>0.22819082483645001</v>
+      </c>
+      <c r="E4">
+        <v>0.23587761637619201</v>
+      </c>
+      <c r="F4">
+        <v>0.244728084021963</v>
+      </c>
+      <c r="G4">
+        <v>0.234034645219309</v>
+      </c>
+      <c r="H4">
+        <v>0.229545813488883</v>
+      </c>
+      <c r="I4">
+        <v>0.234530022130473</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23587761637619201</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22819082483645001</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.244728084021963</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.229545813488883</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.234034645219309</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.234530022130473</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="2"/>
+        <v>0.22819082483645001</v>
+      </c>
+      <c r="T4" t="str">
+        <f>INDEX($L$1:$Q$1,1,MATCH(S4,L4:Q4,0))</f>
+        <v>Mov3(20)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0.22661752507247299</v>
+      </c>
+      <c r="E5">
+        <v>0.22581574936809201</v>
+      </c>
+      <c r="F5">
+        <v>0.224988546457772</v>
+      </c>
+      <c r="G5">
+        <v>0.22661140443549199</v>
+      </c>
+      <c r="H5">
+        <v>0.22619754274643999</v>
+      </c>
+      <c r="I5">
+        <v>0.225806493828418</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25512711855101999</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25761153903815398</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25879435228980302</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25997676492684102</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26247068185679101</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26525046025504401</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>0.25512711855101999</v>
+      </c>
+      <c r="T5" t="str">
+        <f>INDEX($L$1:$Q$1,1,MATCH(S5,L5:Q5,0))</f>
+        <v>Mov3(5)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
-        <v>0.231014025035332</v>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>0.30828311638089001</v>
+      </c>
+      <c r="E6">
+        <v>0.30301736805923302</v>
+      </c>
+      <c r="F6">
+        <v>0.31476409590473098</v>
+      </c>
+      <c r="G6">
+        <v>0.315554135568546</v>
+      </c>
+      <c r="H6">
+        <v>0.311056057025207</v>
+      </c>
+      <c r="I6">
+        <v>0.32252994311248401</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22581574936809201</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22661752507247299</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.224988546457772</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22619754274643999</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22661140443549199</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.225806493828418</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>0.224988546457772</v>
+      </c>
+      <c r="T6" t="str">
+        <f>INDEX($L$1:$Q$1,1,MATCH(S6,L6:Q6,0))</f>
+        <v>Mov3(60)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>0.236730058620854</v>
+        <v>0.25761153903815398</v>
       </c>
       <c r="E7">
-        <v>0.23619529541909001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+        <v>0.25512711855101999</v>
+      </c>
+      <c r="F7">
+        <v>0.25879435228980302</v>
+      </c>
+      <c r="G7">
+        <v>0.26247068185679101</v>
+      </c>
+      <c r="H7">
+        <v>0.25997676492684102</v>
+      </c>
+      <c r="I7">
+        <v>0.26525046025504401</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25257175863273401</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.257352398204926</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.249554585086421</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26535952147445901</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26667148696600101</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.27474080544274698</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>0.249554585086421</v>
+      </c>
+      <c r="T7" t="str">
+        <f>INDEX($L$1:$Q$1,1,MATCH(S7,L7:Q7,0))</f>
+        <v>Mov3(60)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <f>SMALL(L2:L7,1)</f>
+        <v>0.22581574936809201</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ref="M11:Q11" si="3">SMALL(M2:M7,1)</f>
+        <v>0.22661752507247299</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>0.224988546457772</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>0.22619754274643999</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>0.22661140443549199</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="3"/>
+        <v>0.225806493828418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L12" t="str">
+        <f>INDEX($K$2:$K$7,MATCH(L11,L2:L7,0))</f>
+        <v>EWMA</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" ref="M12:Q12" si="4">INDEX($K$2:$K$7,MATCH(M11,M2:M7,0))</f>
+        <v>EWMA</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="4"/>
+        <v>EWMA</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="4"/>
+        <v>EWMA</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="4"/>
+        <v>EWMA</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="4"/>
+        <v>EWMA</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f>SMALL(L2:L7,2)</f>
+        <v>0.23587761637619201</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:Q14" si="5">SMALL(M2:M7,2)</f>
+        <v>0.22819082483645001</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="5"/>
+        <v>0.244728084021963</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="5"/>
+        <v>0.229545813488883</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="5"/>
+        <v>0.234034645219309</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>0.234530022130473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L15" t="str">
+        <f>INDEX($K$2:$K$7,MATCH(L14,L2:L7,0))</f>
+        <v>EGARCH</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" ref="M15:Q15" si="6">INDEX($K$2:$K$7,MATCH(M14,M2:M7,0))</f>
+        <v>EGARCH</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="6"/>
+        <v>EGARCH</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="6"/>
+        <v>EGARCH</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="6"/>
+        <v>EGARCH</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="6"/>
+        <v>EGARCH</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1.1660195708066401</v>
+      </c>
+      <c r="E2">
+        <v>1.1603386803990201</v>
+      </c>
+      <c r="F2">
+        <v>1.16623346747759</v>
+      </c>
+      <c r="G2">
+        <v>1.1796737928454599</v>
+      </c>
+      <c r="H2">
+        <v>1.1768787103864899</v>
+      </c>
+      <c r="I2">
+        <v>1.18686567566495</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f>INDEX($D$2:$I$7,MATCH($K2,$B$2:$B$7,0),L$9)</f>
+        <v>70.121953420337803</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:Q7" si="0">INDEX($D$2:$I$7,MATCH($K2,$B$2:$B$7,0),M$9)</f>
+        <v>86.373138022174899</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>54.496761205535599</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>62.788836583820398</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>31.361400499232701</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>64.871254602071701</v>
+      </c>
+      <c r="S2">
+        <f>SMALL(L2:Q2,1)</f>
+        <v>31.361400499232701</v>
+      </c>
+      <c r="T2" t="str">
+        <f>INDEX($L$1:$Q$1,1,MATCH(S2,L2:Q2,0))</f>
+        <v>fit.roll_5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>70.121953420337803</v>
+      </c>
+      <c r="E3">
+        <v>86.373138022174899</v>
+      </c>
+      <c r="F3">
+        <v>54.496761205535599</v>
+      </c>
+      <c r="G3">
+        <v>62.788836583820398</v>
+      </c>
+      <c r="H3">
+        <v>31.361400499232701</v>
+      </c>
+      <c r="I3">
+        <v>64.871254602071701</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L7" si="1">INDEX($D$2:$I$7,MATCH($K3,$B$2:$B$7,0),L$9)</f>
+        <v>1.2083957873273401</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>1.2047603638466799</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>1.21218045155478</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>1.2128416029160001</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>1.2096910088883199</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>1.21674946098947</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S7" si="2">SMALL(L3:Q3,1)</f>
+        <v>1.2047603638466799</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" ref="T3:T7" si="3">INDEX($L$1:$Q$1,1,MATCH(S3,L3:Q3,0))</f>
+        <v>fit.mov3_5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C8">
-        <v>0.25997676492684102</v>
-      </c>
-      <c r="D8">
-        <v>0.26247068185679101</v>
-      </c>
-      <c r="E8">
-        <v>0.26525046025504401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1.1493332208701299</v>
+      </c>
+      <c r="E4">
+        <v>1.1430060799963999</v>
+      </c>
+      <c r="F4">
+        <v>1.1998026726736</v>
+      </c>
+      <c r="G4">
+        <v>1.15178071230132</v>
+      </c>
+      <c r="H4">
+        <v>1.1466102516868999</v>
+      </c>
+      <c r="I4">
+        <v>1.16275352020242</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>1.1493332208701299</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>1.1430060799963999</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>1.1998026726736</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>1.15178071230132</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>1.1466102516868999</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>1.16275352020242</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="2"/>
+        <v>1.1430060799963999</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" si="3"/>
+        <v>fit.mov3_5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1.1510854007656499</v>
+      </c>
+      <c r="E5">
+        <v>1.1496042009607299</v>
+      </c>
+      <c r="F5">
+        <v>1.14981873067063</v>
+      </c>
+      <c r="G5">
+        <v>1.15085206313593</v>
+      </c>
+      <c r="H5">
+        <v>1.14976043908952</v>
+      </c>
+      <c r="I5">
+        <v>1.15041419493746</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>1.1698122328099001</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>1.16723790116279</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>1.1724558017714</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>1.1742665403608099</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>1.1718324223257399</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>1.17768822594206</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>1.16723790116279</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="3"/>
+        <v>fit.mov3_5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1.2083957873273401</v>
+      </c>
+      <c r="E6">
+        <v>1.2047603638466799</v>
+      </c>
+      <c r="F6">
+        <v>1.21218045155478</v>
+      </c>
+      <c r="G6">
+        <v>1.2128416029160001</v>
+      </c>
+      <c r="H6">
+        <v>1.2096910088883199</v>
+      </c>
+      <c r="I6">
+        <v>1.21674946098947</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>1.1510854007656499</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>1.1496042009607299</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>1.14981873067063</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>1.15085206313593</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>1.14976043908952</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>1.15041419493746</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>1.1496042009607299</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>fit.mov3_5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>1.1698122328099001</v>
+      </c>
+      <c r="E7">
+        <v>1.16723790116279</v>
+      </c>
+      <c r="F7">
+        <v>1.1724558017714</v>
+      </c>
+      <c r="G7">
+        <v>1.1742665403608099</v>
+      </c>
+      <c r="H7">
+        <v>1.1718324223257399</v>
+      </c>
+      <c r="I7">
+        <v>1.17768822594206</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>1.1660195708066401</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>1.1603386803990201</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>1.16623346747759</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>1.1796737928454599</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>1.1768787103864899</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>1.18686567566495</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>1.1603386803990201</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>fit.mov3_5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f>L9+1</f>
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:Q9" si="4">M9+1</f>
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <f>SMALL(L2:L7,1)</f>
+        <v>1.1493332208701299</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ref="M11:Q11" si="5">SMALL(M2:M7,1)</f>
+        <v>1.1430060799963999</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="5"/>
+        <v>1.14981873067063</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="5"/>
+        <v>1.15085206313593</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="5"/>
+        <v>1.1466102516868999</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>1.15041419493746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L12" t="str">
+        <f>INDEX($K$2:$K$7,MATCH(L11,L2:L7,0))</f>
+        <v>EGARCH</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" ref="M12:Q12" si="6">INDEX($K$2:$K$7,MATCH(M11,M2:M7,0))</f>
+        <v>EGARCH</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="6"/>
+        <v>EWMA</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="6"/>
+        <v>EWMA</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="6"/>
+        <v>EGARCH</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="6"/>
+        <v>EWMA</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f>SMALL(L2:L7,2)</f>
+        <v>1.1510854007656499</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:Q14" si="7">SMALL(M2:M7,2)</f>
+        <v>1.1496042009607299</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="7"/>
+        <v>1.16623346747759</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="7"/>
+        <v>1.15178071230132</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="7"/>
+        <v>1.14976043908952</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="7"/>
+        <v>1.16275352020242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L15" t="str">
+        <f>INDEX($K$2:$K$7,MATCH(L14,L2:L7,0))</f>
+        <v>EWMA</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" ref="M15:Q15" si="8">INDEX($K$2:$K$7,MATCH(M14,M2:M7,0))</f>
+        <v>EWMA</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="8"/>
+        <v>APARCH</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="8"/>
+        <v>EGARCH</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="8"/>
+        <v>EWMA</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="8"/>
+        <v>EGARCH</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="str">
+        <f>UPPER(A3)</f>
+        <v>ARCH</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.99391110000000005</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.99404789999999998</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.99402310000000005</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.99385259999999997</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.99396300000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B8" si="0">UPPER(A4)</f>
+        <v>GARCH</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6.0889150000000003E-3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.7080071</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.70482699999999998</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.27644609999999997</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.64757370000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>EGARCH</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.9520930000000003E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.2919929</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.27777109999999999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.28673219999999999</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.22821330000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>GJRGARCH</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.9769389999999997E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.29517300000000002</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.72222889999999995</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.28833429999999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.2065497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>EWMA</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.1473539999999998E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.72355389999999997</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.71326780000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.71166569999999996</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.68290010000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="C10">
-        <v>0.22619754274643999</v>
-      </c>
-      <c r="D10">
-        <v>0.22661140443549199</v>
-      </c>
-      <c r="E10">
-        <v>0.225806493828418</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>0.22313683438870599</v>
-      </c>
-      <c r="D11">
-        <v>0.22334052170740201</v>
-      </c>
-      <c r="E11">
-        <v>0.22287684189047499</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>0.26535952147445901</v>
-      </c>
-      <c r="D12">
-        <v>0.26667148696600101</v>
-      </c>
-      <c r="E12">
-        <v>0.27474080544274698</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>0.25638853266676498</v>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>APARCH</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6.0370479999999997E-3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.35242630000000003</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.77178670000000005</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.79345030000000005</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.31709989999999999</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2402,13 +3862,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G1" t="str">
         <f>PROPER(C1)</f>
@@ -2424,7 +3884,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>7.8714174345263697</v>
@@ -2458,7 +3918,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2.4337239305584801</v>
@@ -2492,7 +3952,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2.4453415077576799</v>
@@ -2526,7 +3986,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>2.4470668193670302</v>
@@ -2560,7 +4020,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>2.4602561795129199</v>
@@ -2594,7 +4054,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>2.4587620338422398</v>
@@ -2681,13 +4141,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G1" t="str">
         <f>PROPER(C1)</f>
@@ -2703,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>7.0980364796368196</v>
@@ -2737,7 +4197,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>1.5818672482052301</v>
@@ -2771,7 +4231,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1.5822777012492399</v>
@@ -2805,7 +4265,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1.6007125225146599</v>
@@ -2839,7 +4299,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>1.58413301483044</v>
@@ -2873,7 +4333,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>1.64617299191344</v>
@@ -2960,13 +4420,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G1" t="str">
         <f>PROPER(C1)</f>
@@ -2982,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>6.8108860146263099</v>
@@ -3016,7 +4476,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2.4358071397880501</v>
@@ -3050,7 +4510,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2.4397148592437898</v>
@@ -3084,7 +4544,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>2.4456553322785402</v>
@@ -3118,7 +4578,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>2.4561651394716901</v>
@@ -3152,7 +4612,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>2.4489157208428902</v>
@@ -3245,25 +4705,25 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3271,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>7.0980364796368196</v>
@@ -3316,7 +4776,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>1.5818672482052301</v>
@@ -3361,7 +4821,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1.5822777012492399</v>
@@ -3406,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1.6007125225146599</v>
@@ -3451,7 +4911,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>1.58413301483044</v>
@@ -3496,7 +4956,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>1.64617299191344</v>
@@ -3602,25 +5062,25 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3628,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1.7295552545621999</v>
@@ -3669,16 +5129,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>1.5805025235341601</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G7" si="1">UPPER(B3)</f>
@@ -3710,13 +5170,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1.58478197333607</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1.5772333202623801</v>
@@ -3751,16 +5211,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1.6025483779705301</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
@@ -3792,7 +5252,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>1.5845085244121</v>
@@ -3833,16 +5293,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>1.63811139579021</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -3922,25 +5382,25 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3948,7 +5408,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>6.8108860146263099</v>
@@ -3989,7 +5449,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2.4358071397880501</v>
@@ -4030,7 +5490,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2.4397148592437898</v>
@@ -4071,7 +5531,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>2.4456553322785402</v>
@@ -4112,7 +5572,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>2.4561651394716901</v>
@@ -4153,7 +5613,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>2.4489157208428902</v>
@@ -4258,25 +5718,25 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4284,7 +5744,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>9.5927308886954794</v>
@@ -4325,7 +5785,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>1.5820891528410199</v>
@@ -4366,13 +5826,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1.5837088087942801</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1.5781615770907</v>
@@ -4407,7 +5867,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1.60241619192962</v>
@@ -4448,7 +5908,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>1.5846390070096199</v>
@@ -4489,7 +5949,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>1.65203094955148</v>
@@ -4595,25 +6055,25 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4621,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>7.8714174345263697</v>
@@ -4662,7 +6122,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2.4337239305584801</v>
@@ -4703,13 +6163,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2.4453415077576799</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>2.4451458535600201</v>
@@ -4744,7 +6204,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>2.4470668193670302</v>
@@ -4785,7 +6245,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>2.4602561795129199</v>
@@ -4826,7 +6286,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>2.4587620338422398</v>
